--- a/data/trans_orig/P37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F6C758-1683-49C8-9599-7C5EEB245234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F53C5F-B9F5-4FC3-A980-6FE80CC7B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F504B99-2617-49A5-8D9F-71AC74E6B30D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5046B29-5411-4F00-8936-991AC1D871F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,6%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>70,3%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,71%</t>
+    <t>5,76%</t>
   </si>
   <si>
     <t>7,53%</t>
@@ -167,19 +167,19 @@
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -188,7 +188,7 @@
     <t>92,47%</t>
   </si>
   <si>
-    <t>94,29%</t>
+    <t>94,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,757 +197,745 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,11%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>24,97%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>75,03%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>66,06%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>67,57%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9447DD5B-98FD-4ED7-B20D-A35CB45B30A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCD30E7-8592-45A9-B734-625981357DC1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,7 +1984,7 @@
         <v>2753</v>
       </c>
       <c r="D14" s="7">
-        <v>2820292</v>
+        <v>2820293</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2047,7 +2035,7 @@
         <v>3212</v>
       </c>
       <c r="D15" s="7">
-        <v>3274778</v>
+        <v>3274779</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5923B363-69A8-4DF2-9164-2B060A303761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF226AD-AD34-4FCC-8A51-31AB69F2F401}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,7 +2395,7 @@
         <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>57</v>
@@ -2419,13 +2407,13 @@
         <v>366992</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2428,13 @@
         <v>1751092</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1492</v>
@@ -2455,13 +2443,13 @@
         <v>1599623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>3154</v>
@@ -2470,13 +2458,13 @@
         <v>3350715</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2532,13 @@
         <v>52691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2559,13 +2547,13 @@
         <v>41866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -2574,13 +2562,13 @@
         <v>94558</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2583,13 @@
         <v>427476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>376</v>
@@ -2610,13 +2598,13 @@
         <v>416765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>767</v>
@@ -2625,13 +2613,13 @@
         <v>844240</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2687,13 @@
         <v>604171</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>601</v>
@@ -2714,13 +2702,13 @@
         <v>648242</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>1149</v>
@@ -2729,13 +2717,13 @@
         <v>1252413</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2738,13 @@
         <v>2810587</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2692</v>
@@ -2765,13 +2753,13 @@
         <v>2904917</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5341</v>
@@ -2780,13 +2768,13 @@
         <v>5715504</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A891BA28-E377-4351-9DBB-FDC43217BFE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F20F8-7663-46C9-9ACF-C8D39AF6825F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2973,13 @@
         <v>255917</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>301</v>
@@ -3000,13 +2988,13 @@
         <v>353280</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>577</v>
@@ -3015,13 +3003,13 @@
         <v>609196</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3024,13 @@
         <v>498430</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>591</v>
@@ -3051,13 +3039,13 @@
         <v>641380</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1077</v>
@@ -3066,13 +3054,13 @@
         <v>1139811</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3128,13 @@
         <v>216678</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -3155,13 +3143,13 @@
         <v>202502</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>378</v>
@@ -3170,13 +3158,13 @@
         <v>419180</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3179,13 @@
         <v>1859707</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1735</v>
@@ -3206,13 +3194,13 @@
         <v>1785798</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3482</v>
@@ -3221,13 +3209,13 @@
         <v>3645505</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3283,13 @@
         <v>58844</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3310,13 +3298,13 @@
         <v>56059</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3325,13 +3313,13 @@
         <v>114903</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3334,13 @@
         <v>488042</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
@@ -3361,13 +3349,13 @@
         <v>493081</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>924</v>
@@ -3376,13 +3364,13 @@
         <v>981123</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3438,13 @@
         <v>531438</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>525</v>
@@ -3465,13 +3453,13 @@
         <v>611841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1058</v>
@@ -3480,13 +3468,13 @@
         <v>1143279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3489,13 @@
         <v>2846180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2801</v>
@@ -3516,13 +3504,13 @@
         <v>2920259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5483</v>
@@ -3531,13 +3519,13 @@
         <v>5766439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B17CF8-75AF-435D-960D-1756CF65B203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B45DB45-4786-4204-87F6-BE1795A58A02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3724,13 @@
         <v>300211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>983</v>
@@ -3751,13 +3739,13 @@
         <v>542555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>1406</v>
@@ -3766,13 +3754,13 @@
         <v>842765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3775,13 @@
         <v>241423</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -3802,13 +3790,13 @@
         <v>290636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>711</v>
@@ -3817,13 +3805,13 @@
         <v>532059</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3879,13 @@
         <v>539773</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>910</v>
@@ -3906,13 +3894,13 @@
         <v>689310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>1539</v>
@@ -3921,13 +3909,13 @@
         <v>1229083</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,28 +3930,28 @@
         <v>1622249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2011</v>
       </c>
       <c r="I8" s="7">
-        <v>1560210</v>
+        <v>1560211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3374</v>
@@ -3972,13 +3960,13 @@
         <v>3182460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +3993,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4046,13 +4034,13 @@
         <v>228407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>339</v>
@@ -4061,13 +4049,13 @@
         <v>221332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>610</v>
@@ -4076,13 +4064,13 @@
         <v>449740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4085,13 @@
         <v>444632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>665</v>
@@ -4112,13 +4100,13 @@
         <v>492554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1075</v>
@@ -4127,13 +4115,13 @@
         <v>937186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,16 +4186,16 @@
         <v>1323</v>
       </c>
       <c r="D13" s="7">
-        <v>1068392</v>
+        <v>1068391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>2232</v>
@@ -4216,13 +4204,13 @@
         <v>1453197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>3555</v>
@@ -4231,13 +4219,13 @@
         <v>2521588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4240,13 @@
         <v>2308303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>3119</v>
@@ -4267,13 +4255,13 @@
         <v>2343401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>5160</v>
@@ -4282,13 +4270,13 @@
         <v>4651705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4288,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F53C5F-B9F5-4FC3-A980-6FE80CC7B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9BF8CF-9DEE-4BA0-9BDB-37D9664B0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5046B29-5411-4F00-8936-991AC1D871F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF9B0BD-84CB-40DE-9AED-813C6C1A9671}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,6%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>70,3%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,19 +197,19 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>10,47%</t>
@@ -218,31 +218,31 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>12,55%</t>
+    <t>12,7%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>87,45%</t>
+    <t>87,3%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -254,31 +254,31 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>15,13%</t>
+    <t>15,24%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>84,87%</t>
+    <t>84,76%</t>
   </si>
   <si>
     <t>87,24%</t>
@@ -287,19 +287,19 @@
     <t>84,15%</t>
   </si>
   <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,154 +311,166 @@
     <t>35,09%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>8,89%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>87,57%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>18,24%</t>
@@ -467,31 +479,31 @@
     <t>16,98%</t>
   </si>
   <si>
-    <t>19,66%</t>
+    <t>19,61%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>80,34%</t>
+    <t>80,39%</t>
   </si>
   <si>
     <t>83,02%</t>
@@ -500,223 +512,229 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>33,93%</t>
   </si>
   <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
   </si>
   <si>
     <t>34,83%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>66,07%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
   </si>
   <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>65,17%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>14,54%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>85,46%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
@@ -740,9 +758,6 @@
     <t>68,02%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
     <t>58,96%</t>
   </si>
   <si>
@@ -765,9 +780,6 @@
   </si>
   <si>
     <t>37,93%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
   </si>
   <si>
     <t>36,38%</t>
@@ -1347,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCD30E7-8592-45A9-B734-625981357DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A6938-CCB8-4EFB-BAB8-60C89CFC078F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,7 +1996,7 @@
         <v>2753</v>
       </c>
       <c r="D14" s="7">
-        <v>2820293</v>
+        <v>2820292</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2035,7 +2047,7 @@
         <v>3212</v>
       </c>
       <c r="D15" s="7">
-        <v>3274779</v>
+        <v>3274778</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF226AD-AD34-4FCC-8A51-31AB69F2F401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAD3AD0-A153-4A19-A83D-95381988C07E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2395,10 +2407,10 @@
         <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -2407,13 +2419,13 @@
         <v>366992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2440,13 @@
         <v>1751092</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1492</v>
@@ -2443,13 +2455,13 @@
         <v>1599623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3154</v>
@@ -2458,13 +2470,13 @@
         <v>3350715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2544,13 @@
         <v>52691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2547,13 +2559,13 @@
         <v>41866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -2562,13 +2574,13 @@
         <v>94558</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>427476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>376</v>
@@ -2598,13 +2610,13 @@
         <v>416765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>767</v>
@@ -2613,13 +2625,13 @@
         <v>844240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>604171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>601</v>
@@ -2702,13 +2714,13 @@
         <v>648242</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1149</v>
@@ -2717,13 +2729,13 @@
         <v>1252413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>2810587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2692</v>
@@ -2753,13 +2765,13 @@
         <v>2904917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5341</v>
@@ -2768,13 +2780,13 @@
         <v>5715504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F20F8-7663-46C9-9ACF-C8D39AF6825F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40D1E0F-3256-47AA-B006-AA2F2D639F06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2985,13 @@
         <v>255917</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>301</v>
@@ -2988,13 +3000,13 @@
         <v>353280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>577</v>
@@ -3003,13 +3015,13 @@
         <v>609196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3036,13 @@
         <v>498430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>591</v>
@@ -3039,13 +3051,13 @@
         <v>641380</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1077</v>
@@ -3054,13 +3066,13 @@
         <v>1139811</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3140,13 @@
         <v>216678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -3143,13 +3155,13 @@
         <v>202502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>378</v>
@@ -3158,13 +3170,13 @@
         <v>419180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3191,13 @@
         <v>1859707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1735</v>
@@ -3194,13 +3206,13 @@
         <v>1785798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3482</v>
@@ -3209,13 +3221,13 @@
         <v>3645505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3295,13 @@
         <v>58844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3298,13 +3310,13 @@
         <v>56059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3313,13 +3325,13 @@
         <v>114903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3346,13 @@
         <v>488042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
@@ -3349,13 +3361,13 @@
         <v>493081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>924</v>
@@ -3364,13 +3376,13 @@
         <v>981123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3450,13 @@
         <v>531438</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>525</v>
@@ -3453,13 +3465,13 @@
         <v>611841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1058</v>
@@ -3468,13 +3480,13 @@
         <v>1143279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3501,13 @@
         <v>2846180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2801</v>
@@ -3504,13 +3516,13 @@
         <v>2920259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5483</v>
@@ -3519,13 +3531,13 @@
         <v>5766439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B45DB45-4786-4204-87F6-BE1795A58A02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943C04CD-256E-4812-818A-81678BB9FB75}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3736,13 @@
         <v>300211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>983</v>
@@ -3739,13 +3751,13 @@
         <v>542555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1406</v>
@@ -3754,13 +3766,13 @@
         <v>842765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3787,13 @@
         <v>241423</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -3790,13 +3802,13 @@
         <v>290636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>711</v>
@@ -3805,13 +3817,13 @@
         <v>532059</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3891,13 @@
         <v>539773</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>910</v>
@@ -3894,13 +3906,13 @@
         <v>689310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1539</v>
@@ -3909,13 +3921,13 @@
         <v>1229083</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3942,13 @@
         <v>1622249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2011</v>
@@ -3945,13 +3957,13 @@
         <v>1560211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3374</v>
@@ -3960,13 +3972,13 @@
         <v>3182460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>228407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>339</v>
@@ -4049,13 +4061,13 @@
         <v>221332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>610</v>
@@ -4064,13 +4076,13 @@
         <v>449740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4097,13 @@
         <v>444632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>665</v>
@@ -4100,13 +4112,13 @@
         <v>492554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1075</v>
@@ -4115,13 +4127,13 @@
         <v>937186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4201,13 @@
         <v>1068391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>2232</v>
@@ -4204,13 +4216,13 @@
         <v>1453197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>3555</v>
@@ -4219,13 +4231,13 @@
         <v>2521588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4252,13 @@
         <v>2308303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3119</v>
@@ -4255,13 +4267,13 @@
         <v>2343401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>5160</v>
@@ -4270,13 +4282,13 @@
         <v>4651705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9BF8CF-9DEE-4BA0-9BDB-37D9664B0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D0E43E-EB68-46A3-B12E-68B11347D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF9B0BD-84CB-40DE-9AED-813C6C1A9671}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A808EBF-6B81-4793-ABEC-9DAC9678CDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>70,3%</t>
   </si>
   <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,814 +140,814 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>24,97%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>75,03%</t>
   </si>
   <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>66,06%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>67,57%</t>
   </si>
   <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A6938-CCB8-4EFB-BAB8-60C89CFC078F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107DF1E0-4709-431B-88B4-D34A270B7319}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAD3AD0-A153-4A19-A83D-95381988C07E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F78697-3A4C-4A8F-9765-8DF075701639}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,7 +2410,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -2419,13 +2419,13 @@
         <v>366992</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2440,13 @@
         <v>1751092</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1492</v>
@@ -2455,13 +2455,13 @@
         <v>1599623</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3154</v>
@@ -2470,13 +2470,13 @@
         <v>3350715</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2544,13 @@
         <v>52691</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2559,13 +2559,13 @@
         <v>41866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -2574,13 +2574,13 @@
         <v>94558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2595,13 @@
         <v>427476</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>376</v>
@@ -2610,13 +2610,13 @@
         <v>416765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>767</v>
@@ -2625,13 +2625,13 @@
         <v>844240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2699,13 @@
         <v>604171</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>601</v>
@@ -2714,13 +2714,13 @@
         <v>648242</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1149</v>
@@ -2729,13 +2729,13 @@
         <v>1252413</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>2810587</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2692</v>
@@ -2765,13 +2765,13 @@
         <v>2904917</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5341</v>
@@ -2780,13 +2780,13 @@
         <v>5715504</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40D1E0F-3256-47AA-B006-AA2F2D639F06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DFC9CA-0BA5-4B18-969F-1CA71ABC0079}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2985,13 @@
         <v>255917</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>301</v>
@@ -3000,13 +3000,13 @@
         <v>353280</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>577</v>
@@ -3015,13 +3015,13 @@
         <v>609196</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3036,13 @@
         <v>498430</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>591</v>
@@ -3051,13 +3051,13 @@
         <v>641380</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1077</v>
@@ -3066,13 +3066,13 @@
         <v>1139811</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3140,13 @@
         <v>216678</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -3155,13 +3155,13 @@
         <v>202502</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>378</v>
@@ -3170,13 +3170,13 @@
         <v>419180</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>1859707</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1735</v>
@@ -3206,13 +3206,13 @@
         <v>1785798</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3482</v>
@@ -3221,13 +3221,13 @@
         <v>3645505</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3295,13 @@
         <v>58844</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3310,13 +3310,13 @@
         <v>56059</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3325,13 +3325,13 @@
         <v>114903</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>488042</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
@@ -3361,13 +3361,13 @@
         <v>493081</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>924</v>
@@ -3376,13 +3376,13 @@
         <v>981123</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3450,13 @@
         <v>531438</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>525</v>
@@ -3465,13 +3465,13 @@
         <v>611841</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1058</v>
@@ -3480,13 +3480,13 @@
         <v>1143279</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3501,13 @@
         <v>2846180</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2801</v>
@@ -3516,13 +3516,13 @@
         <v>2920259</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5483</v>
@@ -3531,13 +3531,13 @@
         <v>5766439</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943C04CD-256E-4812-818A-81678BB9FB75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C24FD33-1C86-4569-AB26-B18C62256273}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3736,13 @@
         <v>300211</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>983</v>
@@ -3751,13 +3751,13 @@
         <v>542555</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1406</v>
@@ -3766,13 +3766,13 @@
         <v>842765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3787,13 @@
         <v>241423</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -3802,13 +3802,13 @@
         <v>290636</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>711</v>
@@ -3817,7 +3817,7 @@
         <v>532059</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>247</v>
@@ -3954,7 +3954,7 @@
         <v>2011</v>
       </c>
       <c r="I8" s="7">
-        <v>1560211</v>
+        <v>1560210</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -4005,7 +4005,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4198,7 @@
         <v>1323</v>
       </c>
       <c r="D13" s="7">
-        <v>1068391</v>
+        <v>1068392</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4300,7 +4300,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P37-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D0E43E-EB68-46A3-B12E-68B11347D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{889FDF86-DBDF-4356-8B4A-00C69D0C7032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A808EBF-6B81-4793-ABEC-9DAC9678CDA2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A9765042-46A5-4238-9093-4DCF9F53E152}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -734,220 +734,214 @@
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107DF1E0-4709-431B-88B4-D34A270B7319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79A72BF-71C3-4C4E-8B96-4D49DD631B5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1510,7 +1504,7 @@
         <v>662</v>
       </c>
       <c r="N4" s="7">
-        <v>665062</v>
+        <v>665061</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1612,7 +1606,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1996,7 +1990,7 @@
         <v>2753</v>
       </c>
       <c r="D14" s="7">
-        <v>2820292</v>
+        <v>2820293</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2047,7 +2041,7 @@
         <v>3212</v>
       </c>
       <c r="D15" s="7">
-        <v>3274778</v>
+        <v>3274779</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F78697-3A4C-4A8F-9765-8DF075701639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE352C-4B53-4804-95CF-FF335EEE7C6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2240,7 @@
         <v>423</v>
       </c>
       <c r="I4" s="7">
-        <v>449267</v>
+        <v>449268</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2348,7 +2342,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DFC9CA-0BA5-4B18-969F-1CA71ABC0079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39812F7-C0E0-402B-876B-EC894530AE06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,7 +3316,7 @@
         <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>114903</v>
+        <v>114904</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>200</v>
@@ -3424,7 +3418,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C24FD33-1C86-4569-AB26-B18C62256273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AA7FD0-ADB5-4D26-A14F-571C10201A19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="D4" s="7">
-        <v>300211</v>
+        <v>281191</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3748,7 +3742,7 @@
         <v>983</v>
       </c>
       <c r="I4" s="7">
-        <v>542555</v>
+        <v>488370</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3763,7 +3757,7 @@
         <v>1406</v>
       </c>
       <c r="N4" s="7">
-        <v>842765</v>
+        <v>769562</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3784,7 +3778,7 @@
         <v>268</v>
       </c>
       <c r="D5" s="7">
-        <v>241423</v>
+        <v>233747</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3799,7 +3793,7 @@
         <v>443</v>
       </c>
       <c r="I5" s="7">
-        <v>290636</v>
+        <v>264798</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3814,7 +3808,7 @@
         <v>711</v>
       </c>
       <c r="N5" s="7">
-        <v>532059</v>
+        <v>498545</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3835,7 +3829,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3844,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3859,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3882,7 @@
         <v>629</v>
       </c>
       <c r="D7" s="7">
-        <v>539773</v>
+        <v>504076</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3903,7 +3897,7 @@
         <v>910</v>
       </c>
       <c r="I7" s="7">
-        <v>689310</v>
+        <v>732865</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3918,7 +3912,7 @@
         <v>1539</v>
       </c>
       <c r="N7" s="7">
-        <v>1229083</v>
+        <v>1236941</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3939,7 +3933,7 @@
         <v>1363</v>
       </c>
       <c r="D8" s="7">
-        <v>1622249</v>
+        <v>1786251</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3954,7 +3948,7 @@
         <v>2011</v>
       </c>
       <c r="I8" s="7">
-        <v>1560210</v>
+        <v>1504958</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3969,7 +3963,7 @@
         <v>3374</v>
       </c>
       <c r="N8" s="7">
-        <v>3182460</v>
+        <v>3291209</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3990,7 +3984,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +3999,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4014,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4037,7 @@
         <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>228407</v>
+        <v>215525</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4058,7 +4052,7 @@
         <v>339</v>
       </c>
       <c r="I10" s="7">
-        <v>221332</v>
+        <v>204094</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4067,22 +4061,22 @@
         <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>610</v>
       </c>
       <c r="N10" s="7">
-        <v>449740</v>
+        <v>419620</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4088,46 @@
         <v>410</v>
       </c>
       <c r="D11" s="7">
-        <v>444632</v>
+        <v>431098</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>665</v>
       </c>
       <c r="I11" s="7">
-        <v>492554</v>
+        <v>456369</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1075</v>
       </c>
       <c r="N11" s="7">
-        <v>937186</v>
+        <v>887466</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4139,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4154,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4169,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,46 +4192,46 @@
         <v>1323</v>
       </c>
       <c r="D13" s="7">
-        <v>1068392</v>
+        <v>1000793</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>2232</v>
       </c>
       <c r="I13" s="7">
-        <v>1453197</v>
+        <v>1425330</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>3555</v>
       </c>
       <c r="N13" s="7">
-        <v>2521588</v>
+        <v>2426123</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,46 +4243,46 @@
         <v>2041</v>
       </c>
       <c r="D14" s="7">
-        <v>2308303</v>
+        <v>2451096</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3119</v>
       </c>
       <c r="I14" s="7">
-        <v>2343401</v>
+        <v>2226125</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>5160</v>
       </c>
       <c r="N14" s="7">
-        <v>4651705</v>
+        <v>4677221</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4309,7 @@
         <v>5351</v>
       </c>
       <c r="I15" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4324,7 @@
         <v>8715</v>
       </c>
       <c r="N15" s="7">
-        <v>7173293</v>
+        <v>7103344</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
